--- a/Lesson_2/Cooler_Requirements_Panchenko_Andrey.xlsx
+++ b/Lesson_2/Cooler_Requirements_Panchenko_Andrey.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FB98E5-004F-4EFF-8960-0D5A64F59CC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B72593-A822-4C41-8F0F-9D351022CA46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{10141C68-1F09-40E0-A98A-1B910715773E}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
-    <sheet name="Traceability" sheetId="2" r:id="rId2"/>
+    <sheet name="RTM" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="71">
   <si>
     <t>Правильность</t>
   </si>
@@ -118,9 +118,6 @@
 describes what should be at the bottom of the cooler case</t>
   </si>
   <si>
-    <t>Place the cooling and water heating buttons on the top of the back of the cooler. Below the condenser, the hot water drain valve, and even below the power cord.</t>
-  </si>
-  <si>
     <t>+
 describes exactly what should be on the back of the cooler</t>
   </si>
@@ -135,15 +132,6 @@
     <t>Requirements</t>
   </si>
   <si>
-    <t>Install the glass dispenser</t>
-  </si>
-  <si>
-    <t>Measure the temperature after heating. Measure the temperature before the second heating.</t>
-  </si>
-  <si>
-    <t>Read instructions</t>
-  </si>
-  <si>
     <t>The cooler should stand well on the surface. Have adjustable feet for greater stability on bumps.</t>
   </si>
   <si>
@@ -157,19 +145,118 @@
     <t>Test</t>
   </si>
   <si>
-    <t>Inspect the front side of the cooler</t>
-  </si>
-  <si>
-    <t>Place glasses in storage space</t>
-  </si>
-  <si>
-    <t>Inspect the back of the cooler</t>
-  </si>
-  <si>
     <t>Check cooler operation at voltage from 115 to 120 volts</t>
   </si>
   <si>
-    <t>Place the cooler on an uneven surface and, by adjusting the legs, make it stand level</t>
+    <t>Check the installation of the glass dispenser on the cooler.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if the holes for the cup dispenser are made in the upper part of the right side panel of the cooler </t>
+  </si>
+  <si>
+    <t>Check that the dispenser holes on the cooler are covered with a plastic cover</t>
+  </si>
+  <si>
+    <t>Check the temperature after heating the water in the cooler</t>
+  </si>
+  <si>
+    <t>Check if the heating indicator is red when heating water in the cooler</t>
+  </si>
+  <si>
+    <t>Check how long it takes to heat water in a cooler</t>
+  </si>
+  <si>
+    <t>Check at what temperature the water in the cooler starts to heat up again</t>
+  </si>
+  <si>
+    <t>Check if the cycle of heating the water in the cooler repeats after it cools down</t>
+  </si>
+  <si>
+    <t>Check if the heating indicator goes out when the water temperature in the cooler reaches 90ºC</t>
+  </si>
+  <si>
+    <t>Check if the cooler is in power saving mode</t>
+  </si>
+  <si>
+    <t>Check if the water in the cooler heats up to 60ºC in the energy saving mode</t>
+  </si>
+  <si>
+    <t>Check if the water heating indicator on the cooler is on when water is heated in energy saving mode in red</t>
+  </si>
+  <si>
+    <t>Check if the water heating indicator on the cooler goes out when the water in energy saving mode reaches 60ºC</t>
+  </si>
+  <si>
+    <t>Check how much time it takes to heat water in a cooler in energy saving mode</t>
+  </si>
+  <si>
+    <t>Check if the power saving mode affects the water cooling in the cooler</t>
+  </si>
+  <si>
+    <t>Check the water temperature in the cooler after cooling</t>
+  </si>
+  <si>
+    <t>Check if the water cooling indicator on the cooler is blue when the water is being cooled</t>
+  </si>
+  <si>
+    <t>Check if the water cooling indicator on the cooler goes out when the water temperature reaches 7 ℃</t>
+  </si>
+  <si>
+    <t>Check at what temperature the water in the cooler starts to cool again</t>
+  </si>
+  <si>
+    <t>Check if the water cooling cycle in the cooler repeats after it heats up</t>
+  </si>
+  <si>
+    <t>Check the instructions for the cooler for spelling errors</t>
+  </si>
+  <si>
+    <t>Check the instructions for the cooler for the presence of cooler characteristics</t>
+  </si>
+  <si>
+    <t>Check if the instructions for the cooler are clear to the user</t>
+  </si>
+  <si>
+    <t>Check the front side of the cooler for the presence of an electronic LED display and control panel.</t>
+  </si>
+  <si>
+    <t>Check the location of the valves on the front side of the cooler</t>
+  </si>
+  <si>
+    <t>Check if the screen, taps, indicators on the front panel of the cooler are working correctly</t>
+  </si>
+  <si>
+    <t>Check the cooler for storage space</t>
+  </si>
+  <si>
+    <t>Check the storage space in the cooler for the capacity of the glasses</t>
+  </si>
+  <si>
+    <t>Check the back of the cooler for buttons for heating and cooling water</t>
+  </si>
+  <si>
+    <t>Check if the buttons on the back of the cooler work</t>
+  </si>
+  <si>
+    <t>Check the operation of the hot water drain tap on the cooler</t>
+  </si>
+  <si>
+    <t>Place the cooling and water heating buttons at the top of the back of the cooler. Below is a condenser, under it is a hot water drain tap, a power cord.</t>
+  </si>
+  <si>
+    <t>Check if the cooler will work at a higher or lower voltage than the recommended</t>
+  </si>
+  <si>
+    <t>Check if the cooler will be through an adapter or extension</t>
+  </si>
+  <si>
+    <t>Check if the cooler is well placed on a flat surface</t>
+  </si>
+  <si>
+    <t>Check if you can put the cooler on an uneven surface by adjusting the legs</t>
+  </si>
+  <si>
+    <t>Check if the feet adjustment works on the cooler</t>
   </si>
 </sst>
 </file>
@@ -227,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -250,11 +337,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -290,7 +414,22 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,7 +748,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,7 +918,7 @@
     </row>
     <row r="8" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>24</v>
@@ -802,10 +941,10 @@
     </row>
     <row r="9" spans="1:7" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>6</v>
@@ -825,10 +964,10 @@
     </row>
     <row r="10" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>6</v>
@@ -848,10 +987,10 @@
     </row>
     <row r="11" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>6</v>
@@ -877,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D78E734-4108-48DF-BDF7-B4E4FB75E7F5}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,10 +1037,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -909,79 +1048,231 @@
         <v>11</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="147" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A3" s="13"/>
       <c r="B3" s="11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A4" s="14"/>
       <c r="B4" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="B15" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="B16" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="B17" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B18" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B26" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B28" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="B29" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="B30" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B31" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B33" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B34" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>41</v>
+    </row>
+    <row r="36" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="B36" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B37" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B39" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="B40" s="17" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Lesson_2/Cooler_Requirements_Panchenko_Andrey.xlsx
+++ b/Lesson_2/Cooler_Requirements_Panchenko_Andrey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B72593-A822-4C41-8F0F-9D351022CA46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B66DB6-980F-4EBC-87D5-7294E7141823}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{10141C68-1F09-40E0-A98A-1B910715773E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="139">
   <si>
     <t>Правильность</t>
   </si>
@@ -66,14 +66,6 @@
 does not contradict other requirements</t>
   </si>
   <si>
-    <t>Possibility to install a dispenser for glasses. It can be installed through the mounting holes (covered with plastic covers) located
-in the upper part of the right side panel of the cooler.</t>
-  </si>
-  <si>
-    <t>On the front of the case there must be an electronic LED display, control panel.
-Below there should be a tap of cold and hot water, an outlet for cold and hot water.</t>
-  </si>
-  <si>
     <t>+
 accurately describes what should be present on the front panel of the cooler</t>
   </si>
@@ -129,9 +121,6 @@
 describes what voltage is needed for the cooler to work</t>
   </si>
   <si>
-    <t>Requirements</t>
-  </si>
-  <si>
     <t>The cooler should stand well on the surface. Have adjustable feet for greater stability on bumps.</t>
   </si>
   <si>
@@ -142,128 +131,383 @@
     <t>There should be a storage compartment at the bottom of the cooler case. This should hold water bottles or replacement dispenser cups.</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Check cooler operation at voltage from 115 to 120 volts</t>
-  </si>
-  <si>
     <t>Check the installation of the glass dispenser on the cooler.</t>
   </si>
   <si>
-    <t xml:space="preserve">Check if the holes for the cup dispenser are made in the upper part of the right side panel of the cooler </t>
-  </si>
-  <si>
-    <t>Check that the dispenser holes on the cooler are covered with a plastic cover</t>
-  </si>
-  <si>
-    <t>Check the temperature after heating the water in the cooler</t>
-  </si>
-  <si>
-    <t>Check if the heating indicator is red when heating water in the cooler</t>
-  </si>
-  <si>
-    <t>Check how long it takes to heat water in a cooler</t>
-  </si>
-  <si>
-    <t>Check at what temperature the water in the cooler starts to heat up again</t>
-  </si>
-  <si>
-    <t>Check if the cycle of heating the water in the cooler repeats after it cools down</t>
-  </si>
-  <si>
-    <t>Check if the heating indicator goes out when the water temperature in the cooler reaches 90ºC</t>
-  </si>
-  <si>
-    <t>Check if the cooler is in power saving mode</t>
-  </si>
-  <si>
-    <t>Check if the water in the cooler heats up to 60ºC in the energy saving mode</t>
-  </si>
-  <si>
-    <t>Check if the water heating indicator on the cooler is on when water is heated in energy saving mode in red</t>
-  </si>
-  <si>
-    <t>Check if the water heating indicator on the cooler goes out when the water in energy saving mode reaches 60ºC</t>
-  </si>
-  <si>
-    <t>Check how much time it takes to heat water in a cooler in energy saving mode</t>
-  </si>
-  <si>
-    <t>Check if the power saving mode affects the water cooling in the cooler</t>
-  </si>
-  <si>
-    <t>Check the water temperature in the cooler after cooling</t>
-  </si>
-  <si>
-    <t>Check if the water cooling indicator on the cooler is blue when the water is being cooled</t>
-  </si>
-  <si>
-    <t>Check if the water cooling indicator on the cooler goes out when the water temperature reaches 7 ℃</t>
-  </si>
-  <si>
-    <t>Check at what temperature the water in the cooler starts to cool again</t>
-  </si>
-  <si>
-    <t>Check if the water cooling cycle in the cooler repeats after it heats up</t>
-  </si>
-  <si>
-    <t>Check the instructions for the cooler for spelling errors</t>
-  </si>
-  <si>
-    <t>Check the instructions for the cooler for the presence of cooler characteristics</t>
-  </si>
-  <si>
-    <t>Check if the instructions for the cooler are clear to the user</t>
-  </si>
-  <si>
-    <t>Check the front side of the cooler for the presence of an electronic LED display and control panel.</t>
-  </si>
-  <si>
-    <t>Check the location of the valves on the front side of the cooler</t>
-  </si>
-  <si>
-    <t>Check if the screen, taps, indicators on the front panel of the cooler are working correctly</t>
-  </si>
-  <si>
-    <t>Check the cooler for storage space</t>
-  </si>
-  <si>
-    <t>Check the storage space in the cooler for the capacity of the glasses</t>
-  </si>
-  <si>
-    <t>Check the back of the cooler for buttons for heating and cooling water</t>
-  </si>
-  <si>
-    <t>Check if the buttons on the back of the cooler work</t>
-  </si>
-  <si>
-    <t>Check the operation of the hot water drain tap on the cooler</t>
-  </si>
-  <si>
     <t>Place the cooling and water heating buttons at the top of the back of the cooler. Below is a condenser, under it is a hot water drain tap, a power cord.</t>
   </si>
   <si>
-    <t>Check if the cooler will work at a higher or lower voltage than the recommended</t>
-  </si>
-  <si>
-    <t>Check if the cooler will be through an adapter or extension</t>
-  </si>
-  <si>
-    <t>Check if the cooler is well placed on a flat surface</t>
-  </si>
-  <si>
-    <t>Check if you can put the cooler on an uneven surface by adjusting the legs</t>
-  </si>
-  <si>
-    <t>Check if the feet adjustment works on the cooler</t>
+    <t>Requirements Traceability Matrix</t>
+  </si>
+  <si>
+    <t>Positive testing</t>
+  </si>
+  <si>
+    <t>Negative testing</t>
+  </si>
+  <si>
+    <t>Integration testing</t>
+  </si>
+  <si>
+    <t>Usability testing</t>
+  </si>
+  <si>
+    <t>Stress testing</t>
+  </si>
+  <si>
+    <t>Functional testing</t>
+  </si>
+  <si>
+    <t>Component testing</t>
+  </si>
+  <si>
+    <t>System testing</t>
+  </si>
+  <si>
+    <t>Check that the dispenser adheres well to the cooler.
+Check that the dispenser on the cooler fits glasses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the installation of the dispenser on the cooler in the specified place.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the installation of the dispenser on the cooler in a place not specified.
+</t>
+  </si>
+  <si>
+    <t>Possibility of installing a dispenser for disposable glasses. It can be installed through the mounting holes (covered with plastic covers) located
+in the upper part of the right side panel of the cooler.</t>
+  </si>
+  <si>
+    <t>Stability testing</t>
+  </si>
+  <si>
+    <t>UI testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check that the holes for attaching the dispenser to the cooler are closed with a plastic cover.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check 100 glasses are taken from the dispenser on the cooler in 30 minutes throughout the day.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if the water in the cooler heats up in normal operation to 90ºC.
+</t>
+  </si>
+  <si>
+    <t>Check the temperature after heating the water in the cooler.
+Check if the cycle of heating the water in the cooler repeats after it cools down.
+Check at what temperature the water in the cooler starts to heat up again.
+Check if the heating indicator goes out when the water temperature in the cooler reaches 90ºC.</t>
+  </si>
+  <si>
+    <t>Check if the holes for the cup dispenser are made in the upper part of the right side panel of the cooler .</t>
+  </si>
+  <si>
+    <t>Check after installing the dispenser on the cooler, will it come off?</t>
+  </si>
+  <si>
+    <t>Check if the water in the cooler can heat up to 90ºC all day without stopping.</t>
+  </si>
+  <si>
+    <t>Checking 20 glasses are removed from the dispenser on the cooler in 30 minutes during the day.</t>
+  </si>
+  <si>
+    <t>Check when the water in the cooler starts to heat up, whether the heating process is turned off.</t>
+  </si>
+  <si>
+    <t>Check if the water heating indicator on the cooler is on when water is heated in energy saving mode in red.
+Check if the water heating indicator on the cooler goes out when the water in energy saving mode reaches 60ºC.</t>
+  </si>
+  <si>
+    <t>Check if the water in the cooler can heat up to 60ºC all day without stopping.</t>
+  </si>
+  <si>
+    <t>Check if the water in the chiller heats up to 60ºC during energy saving operation.</t>
+  </si>
+  <si>
+    <t>Check if the water cooling indicator on the cooler is blue when the water is being cooled.
+Check if the water cooling indicator on the cooler goes out when the water temperature reaches 7 ℃</t>
+  </si>
+  <si>
+    <t>Check if the heating indicator is red when heating water in the cooler.
+Check if the water heating indicator on the cooler goes out when the water in energy saving mode reaches 90ºC.</t>
+  </si>
+  <si>
+    <t>Check if the power saving mode affects the water cooling in the cooler.
+Check the water temperature in the cooler after cooling.
+Check at what temperature the water in the cooler starts to cool again.
+Check if the water cooling cycle in the cooler repeats after it heats up.</t>
+  </si>
+  <si>
+    <t>Check the instructions for the cooler for spelling errors.</t>
+  </si>
+  <si>
+    <t>Check the instructions for the cooler for the presence of cooler characteristics.</t>
+  </si>
+  <si>
+    <t>Check if the instructions for the cooler are clear to the user.</t>
+  </si>
+  <si>
+    <t>Check the location of the valves on the front side of the cooler.
+Check the front side of the cooler for the presence of an electronic LED display and control panel.</t>
+  </si>
+  <si>
+    <t>Check the storage space in the cooler for the capacity of the glasses.</t>
+  </si>
+  <si>
+    <t>Check the cooler for storage space.</t>
+  </si>
+  <si>
+    <t>Check the back of the cooler for buttons for heating and cooling water.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if the buttons on the back of the cooler work.
+Check the operation of the hot water drain tap on the cooler.
+</t>
+  </si>
+  <si>
+    <t>Check cooler operation at voltage from 115 to 120 volts.</t>
+  </si>
+  <si>
+    <t>Check if the cooler will work at a higher or lower voltage than the recommended.
+Check if the cooler will be through an adapter or extension.</t>
+  </si>
+  <si>
+    <t>Check if the feet adjustment works on the cooler.</t>
+  </si>
+  <si>
+    <t>Check if you can put the cooler on an uneven surface by adjusting the legs.</t>
+  </si>
+  <si>
+    <t>Check if the water in the cooler cools down during normal operation and in eco mode to 7 ºC.</t>
+  </si>
+  <si>
+    <t>Check the water in the cooler does not heat up to 120ºC in power saving mode.</t>
+  </si>
+  <si>
+    <t>Check the water in the cooler does not heat up to 90 ºC in power saving mode.</t>
+  </si>
+  <si>
+    <t>Check that the water in the cooler does not cool down to 0 ° C during normal operation and power saving mode.</t>
+  </si>
+  <si>
+    <t>Check, when the water in the cooler starts to cool, whether the cooling process is turned off.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check how long it takes to heat water in a cooler.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if it is convenient to switch the cooler to power saving mode.
+Check how much time it takes to heat water in a cooler in energy saving mode.
+</t>
+  </si>
+  <si>
+    <t>Check that the cooler goes into power saving mode.
+Check if the water in the cooler heats up to 60ºC in the energy saving mode.
+Check if the cycle of heating the water in the cooler repeats after it cools down.</t>
+  </si>
+  <si>
+    <t>Check how long it takes to cool the water in the cooler.</t>
+  </si>
+  <si>
+    <t>Make sure the water in the chiller can cool down to 7ºC throughout the day without stopping.</t>
+  </si>
+  <si>
+    <t>Check if the cooler stands well on a flat and uneven surface.</t>
+  </si>
+  <si>
+    <t>Check if the cooler falls if you push it.</t>
+  </si>
+  <si>
+    <t>Check if the cooler will stand without legs.</t>
+  </si>
+  <si>
+    <t>Check if there are feet on the cooler.</t>
+  </si>
+  <si>
+    <t>Check if the cooler will stand upright if you shake it with little force for 30 minutes.</t>
+  </si>
+  <si>
+    <t>The cooler will be able to check it without legs.
+Check the easily adjustable feet on the cooler.</t>
+  </si>
+  <si>
+    <t>Check the cooler operation at 220 volts.</t>
+  </si>
+  <si>
+    <t>Check if the cooler plug is plugged into a 115/120 volt socket will it work?</t>
+  </si>
+  <si>
+    <t>Is it convenient for the user to plug the cooler into an outlet?</t>
+  </si>
+  <si>
+    <t>Check that buttons and so on on the cooler are placed as required.</t>
+  </si>
+  <si>
+    <t>Check if the operating instructions for the cooler are clear to the user.</t>
+  </si>
+  <si>
+    <t>Check if the instructions will be damaged when transporting the cooler to the buyer.</t>
+  </si>
+  <si>
+    <t>Check the user by reading the instructions will be able to correctly connect the cooler.</t>
+  </si>
+  <si>
+    <t>Check the cooler for a lower storage section.</t>
+  </si>
+  <si>
+    <t>Check that the cooler interface is clear to the user.
+Check that all buttons and taps on the front panel of the cooler are working.</t>
+  </si>
+  <si>
+    <t>Check that the cooler interface is clear to the user.
+Check that all buttons on the back of the cooler are working.</t>
+  </si>
+  <si>
+    <t>Check that the storage space is convenient to use.</t>
+  </si>
+  <si>
+    <t>On the front side of the case there must be an electronic LED display, indicators for heating and cooling water, and a control panel.
+There should be a cold and hot water tap, cold and hot water outlet below.</t>
+  </si>
+  <si>
+    <t>Check if there will be problems with opening the storage compartment in the cooler, if the mount is loose.</t>
+  </si>
+  <si>
+    <t>Check if all components are well attached to the cooler.</t>
+  </si>
+  <si>
+    <t>Check if the LEDs in the heating and cooling indicators on the cooler do not burn out.
+Check if all components are well attached to the cooler.</t>
+  </si>
+  <si>
+    <t>Check if the text quality deteriorates during transportation of the instructions for the cooler in frost or heat.</t>
+  </si>
+  <si>
+    <t>Check interface operation under constant load for 24 hours.</t>
+  </si>
+  <si>
+    <t>Check if the cooler cabinet door will break if you open it 200 times a day.</t>
+  </si>
+  <si>
+    <t>Check if you often drain water from the cooler through the drain, is it clogged?</t>
+  </si>
+  <si>
+    <t>Check if there are voltage drops if the cooler will burn.</t>
+  </si>
+  <si>
+    <t>Check to see if the power wire says it works at 115/120 volts.</t>
+  </si>
+  <si>
+    <t>Check if water will flow from the tap, it will fall into the outlet on the cooler.</t>
+  </si>
+  <si>
+    <t>Check cooler storage space for roominess.</t>
+  </si>
+  <si>
+    <t>Check if water from the drain tap will flow into the power cord for the cooler.</t>
+  </si>
+  <si>
+    <t>Check that the heater works correctly when heating the water in the cooler.
+Check that the indicator lights up when the water is heated in the cooler.</t>
+  </si>
+  <si>
+    <t>Check that the indicator is on when the water in the cooler is cooled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check that the cooler in normal operation heats water up to 90ºC, with constant water use.
+</t>
+  </si>
+  <si>
+    <t>Check that the cooler in the energy-saving mode of operation heats water up to 60ºC, with constant water use.</t>
+  </si>
+  <si>
+    <t>Check that the cooler in normal and energy-saving operation cools the water down to 7ºC, with constant water use.</t>
+  </si>
+  <si>
+    <t>Check that the instructions for the cooler are up to date and understandable to users.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check that the heating and cooling indicators of the water in the cooler stably light up and go out for a week.
+Check that the screen on the cooler functions correctly when used by the user for a week.
+</t>
+  </si>
+  <si>
+    <t>Check that the vault door is open when used for a week.</t>
+  </si>
+  <si>
+    <t>Check that all components of the rear part of the cooler work correctly for a week.</t>
+  </si>
+  <si>
+    <t>Check that the cooler works from an outlet with a voltage of 115/120 volts for a week.</t>
+  </si>
+  <si>
+    <t>Check that the cooler is on the surface for a week.</t>
+  </si>
+  <si>
+    <t>Check that the cup dispenser can be installed in the designated place with a plastic lid.</t>
+  </si>
+  <si>
+    <t>Check that the cooler in normal operation heats water up to 90ºC, while the indicator of non-heating of water is on.
+Check that when the water cools down the cooler repeats the heating cycle.</t>
+  </si>
+  <si>
+    <t>Check that the cooler in the energy-saving mode of operation heats the water up to 60ºC, while the indicator of the water not heating is on.
+Check that when the water cools down the cooler repeats the heating cycle.</t>
+  </si>
+  <si>
+    <t>Check that the cooler in energy-saving mode and normal mode cools water to 7ºC, while the water cooling indicator is on.
+Check that when the water heats up the cooler repeats the cooling cycle.</t>
+  </si>
+  <si>
+    <t>Check that the instructions for the cooler are correctly compiled according to the requirements.</t>
+  </si>
+  <si>
+    <t>Check that the screen on the cooler displays an image, the indicators light up during heating and cooling, and after heating / cooling they go out, when the tap is pressed, water is supplied.</t>
+  </si>
+  <si>
+    <t>Check that the cooler has a storage box at the bottom.</t>
+  </si>
+  <si>
+    <t>Check that the buttons on the rear panel of the cooler work correctly, through the drain it was possible to drain the hot water.</t>
+  </si>
+  <si>
+    <t>Check that the cooler is working properly by plugging it into a 115/120 volt socket.</t>
+  </si>
+  <si>
+    <t>Check that the cooler sits well on the surface and has adjustable legs.</t>
+  </si>
+  <si>
+    <t>Check if the screen, taps, indicators on the front panel of the cooler are working correctly.
+Check that the screen on the cooler displays an image.
+Check that by pressing the buttons you can change the cooler operation mode (normal / energy saving).</t>
+  </si>
+  <si>
+    <t>Check that when you press the cooler buttons, images are displayed on the screen.
+Check that the indicators on the cooler light up and go out.
+Check that water flows when you press the cooler tap.</t>
+  </si>
+  <si>
+    <t>Check that the cooler has a storage space underneath, for example for disposable cups.</t>
+  </si>
+  <si>
+    <t>Check that when the water heating button in the cooler is turned on, the water heats up and, accordingly, when the cooling button is turned on, it cools.
+Check that the water can be drained through the hot water drain tap of the cooler.</t>
+  </si>
+  <si>
+    <t>Check that the cooler is powered by 115/120 volts.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +537,24 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -314,7 +576,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -337,48 +599,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -404,32 +629,33 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,7 +974,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,10 +1006,10 @@
     </row>
     <row r="2" spans="1:7" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
@@ -803,10 +1029,10 @@
     </row>
     <row r="3" spans="1:7" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
@@ -826,16 +1052,16 @@
     </row>
     <row r="4" spans="1:7" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>8</v>
@@ -849,16 +1075,16 @@
     </row>
     <row r="5" spans="1:7" ht="177" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>8</v>
@@ -872,10 +1098,10 @@
     </row>
     <row r="6" spans="1:7" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
@@ -895,10 +1121,10 @@
     </row>
     <row r="7" spans="1:7" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>6</v>
@@ -918,10 +1144,10 @@
     </row>
     <row r="8" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>6</v>
@@ -941,10 +1167,10 @@
     </row>
     <row r="9" spans="1:7" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>6</v>
@@ -964,10 +1190,10 @@
     </row>
     <row r="10" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>6</v>
@@ -987,10 +1213,10 @@
     </row>
     <row r="11" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>6</v>
@@ -1016,266 +1242,1277 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D78E734-4108-48DF-BDF7-B4E4FB75E7F5}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:16" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+    </row>
+    <row r="2" spans="1:16" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+    </row>
+    <row r="3" spans="1:16" ht="239.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+    </row>
+    <row r="4" spans="1:16" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+    </row>
+    <row r="5" spans="1:16" ht="229.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+    </row>
+    <row r="6" spans="1:16" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+    </row>
+    <row r="7" spans="1:16" ht="210" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+    </row>
+    <row r="8" spans="1:16" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="147" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+    </row>
+    <row r="9" spans="1:16" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+    </row>
+    <row r="10" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+    </row>
+    <row r="11" spans="1:16" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="B14" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="B22" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="B23" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="B25" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="B26" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="B28" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="B29" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="B31" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="B33" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="B34" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="B36" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="B37" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="B39" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="B40" s="17" t="s">
-        <v>69</v>
-      </c>
+      <c r="B11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>